--- a/data/trans_camb/IP2001-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP2001-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>12,42</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>7,91</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>5,57</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>5,93</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,54</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>5,47</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>6,77</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>1,02</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 4,32</t>
+          <t>3,4; 35,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 2,27</t>
+          <t>0,0; 23,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 2,76</t>
+          <t>0,0; 28,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 6,68</t>
+          <t>-17,29; 10,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 7,12</t>
+          <t>-11,12; 27,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,77; -0,43</t>
+          <t>-16,82; 10,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 3,74</t>
+          <t>-4,03; 16,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 3,25</t>
+          <t>-2,44; 18,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 0,19</t>
+          <t>-6,32; 11,7</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-6,24%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-23,91%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-19,72%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>-22,76%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>70,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-47,93%</t>
+          <t>-41,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>130,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-1,9%</t>
+          <t>161,26%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-31,89%</t>
+          <t>24,26%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-44,24; 62,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-53,06; 33,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-56,84; 38,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-25,94; 95,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,66; 105,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-74,84; -4,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-28,55; 48,07</t>
+          <t>-80,91; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-31,56; 41,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-55,71; 3,07</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,8</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,99</t>
+          <t>-4,54</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,88</t>
+          <t>-3,05</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 3,74</t>
+          <t>-5,39; 4,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 7,94</t>
+          <t>-6,29; 2,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 2,03</t>
+          <t>-6,85; 2,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 3,1</t>
+          <t>-3,05; 6,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 6,87</t>
+          <t>-2,94; 7,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,45; -1,18</t>
+          <t>-8,77; -0,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 1,88</t>
+          <t>-3,18; 3,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 5,59</t>
+          <t>-3,45; 3,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,03; -0,89</t>
+          <t>-6,36; 0,19</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-16,07%</t>
+          <t>-6,24%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>33,52%</t>
+          <t>-23,91%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-33,53%</t>
+          <t>-19,72%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-18,87%</t>
+          <t>16,14%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>22,42%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-61,64%</t>
+          <t>-47,93%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-17,42%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>28,02%</t>
+          <t>-1,9%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-47,25%</t>
+          <t>-31,89%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-57,48; 57,3</t>
+          <t>-44,24; 62,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-20,03; 127,51</t>
+          <t>-53,06; 33,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-71,8; 31,06</t>
+          <t>-56,84; 38,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-56,77; 52,04</t>
+          <t>-25,94; 95,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-31,33; 120,09</t>
+          <t>-24,66; 105,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-86,47; -10,37</t>
+          <t>-74,84; -4,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-50,93; 30,61</t>
+          <t>-28,55; 48,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 83,4</t>
+          <t>-31,56; 41,02</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-70,19; -8,68</t>
+          <t>-55,71; 3,07</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>12,42</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,91</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,57</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,92</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,93</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>-2,13</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,47</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,77</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>-2,4</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,4; 35,24</t>
+          <t>-1,17; 9,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,05</t>
+          <t>-1,91; 8,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,66</t>
+          <t>-7,05; 1,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-17,29; 10,78</t>
+          <t>-2,07; 8,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 27,53</t>
+          <t>-1,9; 8,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-16,82; 10,94</t>
+          <t>-6,27; 2,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 16,76</t>
+          <t>0,01; 7,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 18,52</t>
+          <t>-0,46; 6,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 11,7</t>
+          <t>-5,95; 0,24</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>53,18%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>44,82%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-36,43%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-22,76%</t>
+          <t>47,58%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>70,26%</t>
+          <t>42,56%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-41,04%</t>
+          <t>-31,04%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>130,22%</t>
+          <t>50,51%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>161,26%</t>
+          <t>43,8%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>24,26%</t>
+          <t>-33,89%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,1; 184,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,59; 171,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,17; 43,29</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,13; 166,59</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,23; 183,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,07; 48,18</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-80,91; —</t>
+          <t>0,66; 141,15</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,21; 125,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,47; 5,44</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,88</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-2,66</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,13</t>
+          <t>-4,99</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-2,4</t>
+          <t>-3,88</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 9,35</t>
+          <t>-5,92; 3,74</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 8,52</t>
+          <t>-1,92; 7,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 1,7</t>
+          <t>-7,11; 2,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 8,28</t>
+          <t>-5,98; 3,1</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 8,07</t>
+          <t>-3,02; 6,87</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 2,2</t>
+          <t>-9,45; -1,18</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,01; 7,27</t>
+          <t>-5,04; 1,88</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 6,7</t>
+          <t>-1,48; 5,59</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 0,24</t>
+          <t>-7,03; -0,89</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>53,18%</t>
+          <t>-16,07%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>44,82%</t>
+          <t>33,52%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-36,43%</t>
+          <t>-33,53%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>47,58%</t>
+          <t>-18,87%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>42,56%</t>
+          <t>22,42%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-31,04%</t>
+          <t>-61,64%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>50,51%</t>
+          <t>-17,42%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>43,8%</t>
+          <t>28,02%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-33,89%</t>
+          <t>-47,25%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-15,1; 184,05</t>
+          <t>-57,48; 57,3</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-23,59; 171,67</t>
+          <t>-20,03; 127,51</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-71,17; 43,29</t>
+          <t>-71,8; 31,06</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-25,13; 166,59</t>
+          <t>-56,77; 52,04</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-23,23; 183,24</t>
+          <t>-31,33; 120,09</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-69,07; 48,18</t>
+          <t>-86,47; -10,37</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>0,66; 141,15</t>
+          <t>-50,93; 30,61</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 125,34</t>
+          <t>-16,0; 83,4</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-63,47; 5,44</t>
+          <t>-70,19; -8,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP2001-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP2001-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,4; 35,24</t>
+          <t>3,27; 31,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,05</t>
+          <t>0,0; 23,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,29; 10,78</t>
+          <t>-17,47; 10,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 27,53</t>
+          <t>-12,34; 26,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,82; 10,94</t>
+          <t>-17,0; 10,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 16,76</t>
+          <t>-3,6; 17,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 18,52</t>
+          <t>-2,75; 18,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 11,7</t>
+          <t>-6,36; 11,93</t>
         </is>
       </c>
     </row>
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-80,91; —</t>
+          <t>-81,18; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,37; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 10,33</t>
+          <t>-1,44; 10,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 9,98</t>
+          <t>-1,48; 10,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 4,43</t>
+          <t>-7,08; 3,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 7,91</t>
+          <t>-5,23; 7,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 6,67</t>
+          <t>-5,85; 6,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 1,43</t>
+          <t>-9,31; 1,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 7,73</t>
+          <t>-1,53; 7,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 7,01</t>
+          <t>-2,04; 6,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 1,25</t>
+          <t>-6,5; 1,04</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-32,64; 226,72</t>
+          <t>-19,68; 245,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,85; 229,62</t>
+          <t>-19,46; 255,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-71,63; 108,53</t>
+          <t>-71,47; 85,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-46,46; 121,99</t>
+          <t>-46,36; 113,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,08; 108,03</t>
+          <t>-49,13; 111,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-74,61; 26,97</t>
+          <t>-72,79; 32,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,61; 125,49</t>
+          <t>-15,78; 131,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,95; 119,0</t>
+          <t>-19,77; 112,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-62,59; 22,99</t>
+          <t>-65,47; 18,67</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 4,32</t>
+          <t>-5,32; 4,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 2,27</t>
+          <t>-6,82; 1,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 2,76</t>
+          <t>-6,36; 2,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 6,68</t>
+          <t>-3,17; 6,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 7,12</t>
+          <t>-2,65; 7,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,77; -0,43</t>
+          <t>-8,67; -0,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 3,74</t>
+          <t>-2,76; 3,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 3,25</t>
+          <t>-3,45; 3,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 0,19</t>
+          <t>-6,15; 0,09</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-44,24; 62,7</t>
+          <t>-45,21; 56,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-53,06; 33,74</t>
+          <t>-55,27; 27,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-56,84; 38,86</t>
+          <t>-54,22; 38,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-25,94; 95,63</t>
+          <t>-28,06; 87,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-24,66; 105,92</t>
+          <t>-23,88; 96,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-74,84; -4,78</t>
+          <t>-74,9; -5,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-28,55; 48,07</t>
+          <t>-25,85; 46,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-31,56; 41,02</t>
+          <t>-31,07; 37,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-55,71; 3,07</t>
+          <t>-54,62; 1,98</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 9,35</t>
+          <t>-1,63; 9,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 8,52</t>
+          <t>-1,68; 9,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 1,7</t>
+          <t>-6,69; 2,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 8,28</t>
+          <t>-1,77; 8,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 8,07</t>
+          <t>-2,25; 8,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 2,2</t>
+          <t>-6,55; 2,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,01; 7,27</t>
+          <t>-0,15; 7,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 6,7</t>
+          <t>-0,39; 6,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 0,24</t>
+          <t>-5,79; 0,59</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,1; 184,05</t>
+          <t>-18,3; 197,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-23,59; 171,67</t>
+          <t>-17,84; 198,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-71,17; 43,29</t>
+          <t>-70,83; 45,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-25,13; 166,59</t>
+          <t>-21,93; 185,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-23,23; 183,24</t>
+          <t>-28,97; 165,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-69,07; 48,18</t>
+          <t>-70,38; 55,79</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,66; 141,15</t>
+          <t>-1,81; 132,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 125,34</t>
+          <t>-5,0; 129,78</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-63,47; 5,44</t>
+          <t>-65,02; 10,89</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 3,74</t>
+          <t>-5,86; 3,62</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 7,94</t>
+          <t>-2,19; 8,03</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 2,03</t>
+          <t>-7,15; 2,83</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 3,1</t>
+          <t>-6,33; 2,86</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 6,87</t>
+          <t>-3,35; 6,6</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,45; -1,18</t>
+          <t>-9,12; -0,64</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 1,88</t>
+          <t>-4,81; 1,77</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 5,59</t>
+          <t>-1,14; 5,89</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-7,03; -0,89</t>
+          <t>-6,66; -0,7</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-57,48; 57,3</t>
+          <t>-54,33; 69,99</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-20,03; 127,51</t>
+          <t>-21,37; 143,45</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-71,8; 31,06</t>
+          <t>-68,3; 61,06</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-56,77; 52,04</t>
+          <t>-57,93; 55,73</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-31,33; 120,09</t>
+          <t>-32,25; 105,5</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-86,47; -10,37</t>
+          <t>-84,09; 3,34</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-50,93; 30,61</t>
+          <t>-49,37; 27,02</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 83,4</t>
+          <t>-12,32; 90,19</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-70,19; -8,68</t>
+          <t>-69,15; -9,27</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 3,8</t>
+          <t>-0,93; 4,05</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 4,16</t>
+          <t>-0,76; 4,19</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 0,44</t>
+          <t>-4,43; 0,21</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 3,33</t>
+          <t>-1,72; 3,68</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 4,59</t>
+          <t>-0,63; 4,77</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,97; -1,85</t>
+          <t>-6,23; -1,63</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 3,0</t>
+          <t>-0,46; 3,04</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,03; 3,81</t>
+          <t>0,08; 3,86</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-4,48; -1,18</t>
+          <t>-4,7; -1,39</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 54,55</t>
+          <t>-10,79; 59,03</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 60,9</t>
+          <t>-8,52; 63,69</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-46,02; 6,94</t>
+          <t>-48,0; 3,46</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-16,21; 45,07</t>
+          <t>-17,64; 50,86</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 62,88</t>
+          <t>-5,74; 68,95</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-63,46; -24,24</t>
+          <t>-63,12; -20,58</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 40,73</t>
+          <t>-5,14; 41,42</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>1,32; 51,64</t>
+          <t>0,35; 51,0</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-49,79; -15,35</t>
+          <t>-50,53; -18,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP2001-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP2001-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,27; 31,06</t>
+          <t>3,32; 33,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,13</t>
+          <t>0,0; 26,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,66</t>
+          <t>0,0; 31,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 10,52</t>
+          <t>-19,84; 10,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 26,44</t>
+          <t>-11,68; 27,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,0; 10,9</t>
+          <t>-17,18; 10,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 17,34</t>
+          <t>-3,83; 16,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 18,48</t>
+          <t>-3,7; 19,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 11,93</t>
+          <t>-6,35; 12,31</t>
         </is>
       </c>
     </row>
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-81,18; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-78,37; —</t>
+          <t>-76,99; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 10,98</t>
+          <t>-1,69; 9,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 10,94</t>
+          <t>-2,42; 10,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 3,54</t>
+          <t>-6,79; 3,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 7,45</t>
+          <t>-5,03; 8,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 6,78</t>
+          <t>-5,72; 7,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 1,88</t>
+          <t>-9,37; 1,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 7,79</t>
+          <t>-1,62; 7,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 6,87</t>
+          <t>-2,01; 6,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 1,04</t>
+          <t>-6,7; 1,29</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-19,68; 245,57</t>
+          <t>-21,51; 241,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-19,46; 255,2</t>
+          <t>-26,09; 244,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-71,47; 85,07</t>
+          <t>-73,64; 91,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-46,36; 113,93</t>
+          <t>-43,95; 140,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,13; 111,01</t>
+          <t>-49,8; 116,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-72,79; 32,96</t>
+          <t>-75,64; 38,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,78; 131,58</t>
+          <t>-17,42; 122,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,77; 112,72</t>
+          <t>-21,41; 112,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-65,47; 18,67</t>
+          <t>-64,04; 24,12</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 4,25</t>
+          <t>-4,97; 4,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 1,95</t>
+          <t>-6,95; 2,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 2,68</t>
+          <t>-6,37; 2,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 6,39</t>
+          <t>-3,16; 6,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 7,09</t>
+          <t>-2,95; 6,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,67; -0,47</t>
+          <t>-8,71; -0,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 3,74</t>
+          <t>-3,08; 3,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 3,03</t>
+          <t>-3,39; 2,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 0,09</t>
+          <t>-6,58; -0,08</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-45,21; 56,84</t>
+          <t>-43,16; 59,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-55,27; 27,52</t>
+          <t>-56,33; 31,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-54,22; 38,24</t>
+          <t>-55,75; 35,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-28,06; 87,15</t>
+          <t>-26,69; 91,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-23,88; 96,35</t>
+          <t>-24,54; 99,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-74,9; -5,12</t>
+          <t>-72,56; -4,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-25,85; 46,63</t>
+          <t>-27,31; 48,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-31,07; 37,44</t>
+          <t>-31,03; 34,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-54,62; 1,98</t>
+          <t>-57,78; 0,51</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 9,63</t>
+          <t>-1,65; 9,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 9,04</t>
+          <t>-2,08; 8,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 2,19</t>
+          <t>-7,51; 1,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 8,33</t>
+          <t>-2,03; 8,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 8,14</t>
+          <t>-2,06; 8,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 2,06</t>
+          <t>-6,53; 2,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 7,15</t>
+          <t>0,21; 7,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 6,84</t>
+          <t>-0,5; 6,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 0,59</t>
+          <t>-5,48; 0,52</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-18,3; 197,26</t>
+          <t>-16,44; 217,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,84; 198,73</t>
+          <t>-23,89; 176,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-70,83; 45,53</t>
+          <t>-72,01; 49,79</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,93; 185,25</t>
+          <t>-21,93; 194,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-28,97; 165,9</t>
+          <t>-22,87; 187,74</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-70,38; 55,79</t>
+          <t>-68,8; 53,59</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 132,9</t>
+          <t>1,96; 131,49</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 129,78</t>
+          <t>-7,08; 115,35</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-65,02; 10,89</t>
+          <t>-60,41; 11,66</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 3,62</t>
+          <t>-5,56; 4,11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 8,03</t>
+          <t>-1,7; 8,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 2,83</t>
+          <t>-7,23; 2,3</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 2,86</t>
+          <t>-6,28; 2,81</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 6,6</t>
+          <t>-3,07; 6,78</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,12; -0,64</t>
+          <t>-9,21; -0,96</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 1,77</t>
+          <t>-4,39; 1,88</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 5,89</t>
+          <t>-1,05; 5,88</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,66; -0,7</t>
+          <t>-6,6; -0,62</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-54,33; 69,99</t>
+          <t>-55,27; 76,3</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-21,37; 143,45</t>
+          <t>-16,44; 155,38</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-68,3; 61,06</t>
+          <t>-68,02; 47,97</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-57,93; 55,73</t>
+          <t>-60,79; 47,6</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-32,25; 105,5</t>
+          <t>-32,62; 109,29</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-84,09; 3,34</t>
+          <t>-84,95; -7,25</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-49,37; 27,02</t>
+          <t>-46,75; 28,03</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 90,19</t>
+          <t>-11,35; 84,84</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-69,15; -9,27</t>
+          <t>-69,69; -7,54</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 4,05</t>
+          <t>-0,8; 3,87</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 4,19</t>
+          <t>-0,77; 4,15</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 0,21</t>
+          <t>-4,25; 0,38</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 3,68</t>
+          <t>-1,61; 3,52</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 4,77</t>
+          <t>-0,7; 4,66</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,23; -1,63</t>
+          <t>-6,21; -1,8</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 3,04</t>
+          <t>-0,59; 2,86</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,08; 3,86</t>
+          <t>0,0; 3,67</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-4,7; -1,39</t>
+          <t>-4,57; -1,15</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 59,03</t>
+          <t>-9,28; 56,69</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 63,69</t>
+          <t>-8,77; 59,0</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-48,0; 3,46</t>
+          <t>-46,7; 8,09</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-17,64; 50,86</t>
+          <t>-16,63; 49,28</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 68,95</t>
+          <t>-7,65; 62,5</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-63,12; -20,58</t>
+          <t>-63,28; -25,36</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 41,42</t>
+          <t>-6,59; 38,08</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>0,35; 51,0</t>
+          <t>0,81; 50,89</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-50,53; -18,37</t>
+          <t>-50,04; -14,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP2001-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP2001-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,42</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,91</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>-3,48</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>5,57</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-1,92</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,93</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,47</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,77</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>-2,05</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,32; 33,72</t>
+          <t>-5,03; 7,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,2</t>
+          <t>-5,48; 7,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,71</t>
+          <t>-8,89; 2,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,84; 10,93</t>
+          <t>0,2; 11,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 27,96</t>
+          <t>-0,76; 10,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,18; 10,47</t>
+          <t>-4,94; 4,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 16,4</t>
+          <t>-0,35; 7,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 19,05</t>
+          <t>-0,39; 7,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 12,31</t>
+          <t>-5,38; 1,57</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>16,31%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-38,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-22,76%</t>
+          <t>95,87%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>70,26%</t>
+          <t>78,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-41,04%</t>
+          <t>-12,75%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>130,22%</t>
+          <t>45,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>161,26%</t>
+          <t>42,16%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>24,26%</t>
+          <t>-27,83%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,37; 108,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,9; 116,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,92; 44,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,69; 295,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,22; 287,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,56; 121,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-4,76; 132,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-76,99; —</t>
+          <t>-5,66; 128,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,41; 30,7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,28</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-4,54</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,57</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>-2,9</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 9,96</t>
+          <t>-3,05; 6,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 10,32</t>
+          <t>-2,94; 7,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 3,83</t>
+          <t>-8,78; -0,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 8,64</t>
+          <t>-5,39; 4,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 7,03</t>
+          <t>-6,29; 2,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 1,84</t>
+          <t>-6,67; 3,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 7,61</t>
+          <t>-3,18; 3,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 6,84</t>
+          <t>-3,45; 3,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 1,29</t>
+          <t>-6,24; 0,41</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>62,05%</t>
+          <t>16,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>57,57%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-25,55%</t>
+          <t>-47,93%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,93%</t>
+          <t>-6,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>-23,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-38,73%</t>
+          <t>-17,47%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>36,94%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>29,84%</t>
+          <t>-1,9%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-32,66%</t>
+          <t>-30,38%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,51; 241,64</t>
+          <t>-25,94; 95,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,09; 244,16</t>
+          <t>-24,66; 105,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-73,64; 91,52</t>
+          <t>-74,1; -4,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-43,95; 140,63</t>
+          <t>-44,24; 62,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,8; 116,16</t>
+          <t>-53,06; 33,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-75,64; 38,34</t>
+          <t>-56,22; 47,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 122,99</t>
+          <t>-28,55; 48,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-21,41; 112,56</t>
+          <t>-31,56; 41,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-64,04; 24,12</t>
+          <t>-55,34; 5,75</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,54</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>-2,77</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 4,29</t>
+          <t>-2,07; 8,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 2,09</t>
+          <t>-1,9; 8,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 2,46</t>
+          <t>-7,06; 1,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 6,58</t>
+          <t>-1,17; 9,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 6,74</t>
+          <t>-1,91; 8,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,71; -0,47</t>
+          <t>-7,15; 1,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 3,78</t>
+          <t>0,01; 7,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 2,83</t>
+          <t>-0,46; 6,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,58; -0,08</t>
+          <t>-6,56; -0,11</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-6,24%</t>
+          <t>47,58%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-23,91%</t>
+          <t>42,56%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-19,72%</t>
+          <t>-40,12%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>53,18%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>44,82%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-47,93%</t>
+          <t>-37,86%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>50,51%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-1,9%</t>
+          <t>43,8%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-31,89%</t>
+          <t>-39,05%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-43,16; 59,9</t>
+          <t>-25,13; 166,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-56,33; 31,07</t>
+          <t>-23,23; 183,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-55,75; 35,97</t>
+          <t>-74,63; 31,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-26,69; 91,41</t>
+          <t>-15,1; 184,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-24,54; 99,95</t>
+          <t>-23,59; 171,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-72,56; -4,79</t>
+          <t>-71,76; 39,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-27,31; 48,91</t>
+          <t>0,66; 141,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-31,03; 34,58</t>
+          <t>-6,21; 125,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-57,78; 0,51</t>
+          <t>-67,4; -0,71</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,88</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,66</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,13</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,4</t>
+          <t>-3,87</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 9,39</t>
+          <t>-5,98; 3,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 8,9</t>
+          <t>-3,02; 6,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 1,79</t>
+          <t>-9,48; -1,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 8,38</t>
+          <t>-5,92; 3,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 8,5</t>
+          <t>-1,92; 7,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 2,18</t>
+          <t>-7,17; 2,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 7,26</t>
+          <t>-5,04; 1,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 6,64</t>
+          <t>-1,48; 5,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 0,52</t>
+          <t>-7,02; -0,86</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>53,18%</t>
+          <t>-18,87%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>44,82%</t>
+          <t>22,42%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-36,43%</t>
+          <t>-61,96%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>47,58%</t>
+          <t>-16,07%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>42,56%</t>
+          <t>33,52%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-31,04%</t>
+          <t>-33,82%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>50,51%</t>
+          <t>-17,42%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>43,8%</t>
+          <t>28,02%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-33,89%</t>
+          <t>-47,13%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,44; 217,37</t>
+          <t>-56,77; 52,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-23,89; 176,59</t>
+          <t>-31,33; 120,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-72,01; 49,79</t>
+          <t>-86,59; -11,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,93; 194,74</t>
+          <t>-57,48; 57,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-22,87; 187,74</t>
+          <t>-20,03; 127,51</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-68,8; 53,59</t>
+          <t>-71,63; 33,06</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,96; 131,49</t>
+          <t>-50,93; 30,61</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 115,35</t>
+          <t>-16,0; 83,4</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-60,41; 11,66</t>
+          <t>-70,7; -8,25</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-2,8</t>
+          <t>-4,09</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-4,99</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-3,88</t>
+          <t>-2,98</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 4,11</t>
+          <t>-1,54; 3,33</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 8,17</t>
+          <t>-0,77; 4,59</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 2,3</t>
+          <t>-6,11; -1,95</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 2,81</t>
+          <t>-1,1; 3,8</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 6,78</t>
+          <t>-0,7; 4,16</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,21; -0,96</t>
+          <t>-4,1; 0,43</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 1,88</t>
+          <t>-0,66; 3,0</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 5,88</t>
+          <t>0,03; 3,81</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,6; -0,62</t>
+          <t>-4,55; -1,25</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-16,07%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>33,52%</t>
+          <t>24,4%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-33,53%</t>
+          <t>-48,49%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-18,87%</t>
+          <t>17,89%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>22,42%</t>
+          <t>21,67%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-61,64%</t>
+          <t>-24,84%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-17,42%</t>
+          <t>14,2%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>28,02%</t>
+          <t>23,02%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-47,25%</t>
+          <t>-36,29%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-55,27; 76,3</t>
+          <t>-16,21; 45,07</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-16,44; 155,38</t>
+          <t>-7,86; 62,88</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-68,02; 47,97</t>
+          <t>-64,77; -25,68</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-60,79; 47,6</t>
+          <t>-12,22; 54,55</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-32,62; 109,29</t>
+          <t>-8,08; 60,9</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-84,95; -7,25</t>
+          <t>-45,65; 7,15</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-46,75; 28,03</t>
+          <t>-7,15; 40,73</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-11,35; 84,84</t>
+          <t>1,32; 51,64</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-69,69; -7,54</t>
+          <t>-49,76; -15,91</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,43</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>1,73</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-1,97</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>2,06</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-3,93</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>1,17</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-2,91</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,8; 3,87</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-0,77; 4,15</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-4,25; 0,38</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-1,61; 3,52</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-0,7; 4,66</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-6,21; -1,8</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-0,59; 2,86</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,67</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-4,57; -1,15</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>17,89%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>21,67%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-24,74%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>10,52%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>24,4%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-46,51%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>14,2%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>23,02%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-35,42%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-9,28; 56,69</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-8,77; 59,0</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-46,7; 8,09</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-16,63; 49,28</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-7,65; 62,5</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-63,28; -25,36</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-6,59; 38,08</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>0,81; 50,89</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-50,04; -14,22</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
